--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1820.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1820.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.25478207414254</v>
+        <v>0.9975323677062988</v>
       </c>
       <c r="B1">
-        <v>2.207145321496152</v>
+        <v>1.042445063591003</v>
       </c>
       <c r="C1">
-        <v>2.779123129397666</v>
+        <v>5.376063346862793</v>
       </c>
       <c r="D1">
-        <v>3.219386387255227</v>
+        <v>1.596341133117676</v>
       </c>
       <c r="E1">
-        <v>2.280356792054978</v>
+        <v>0.9724112749099731</v>
       </c>
     </row>
   </sheetData>
